--- a/TestData/ShareHolding_BasicDetails.xlsx
+++ b/TestData/ShareHolding_BasicDetails.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Secretarial-Project-main\Secretarial-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B098350-E955-4E3C-947F-7C16641B746B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8A1E8E84-9087-4189-AF02-B594DE7E2C7E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ShareHoldings" sheetId="1" r:id="rId1"/>
     <sheet name="Country" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -609,12 +608,6 @@
     <t>Karad</t>
   </si>
   <si>
-    <t>U45201MP2119PTC022003</t>
-  </si>
-  <si>
-    <t>Nikhil Patil</t>
-  </si>
-  <si>
     <t>Subhash</t>
   </si>
   <si>
@@ -624,13 +617,19 @@
     <t>Business</t>
   </si>
   <si>
-    <t>TY56282v</t>
+    <t>Rudransh Patil</t>
+  </si>
+  <si>
+    <t>U45201MP2119PTC022546</t>
+  </si>
+  <si>
+    <t>TY56872v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1027,44 +1026,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338F7195-EBD7-4337-B45F-64EC1D93390B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.21875" customWidth="1"/>
-    <col min="11" max="11" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
     <col min="16" max="16" width="23" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24" customWidth="1"/>
-    <col min="21" max="21" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="15" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.6640625" customWidth="1"/>
-    <col min="27" max="27" width="30.5546875" customWidth="1"/>
-    <col min="28" max="28" width="15.33203125" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" customWidth="1"/>
+    <col min="27" max="27" width="30.5703125" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>189</v>
       </c>
@@ -1170,22 +1169,22 @@
         <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
         <v>190</v>
       </c>
       <c r="J2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K2" t="s">
         <v>191</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" t="s">
         <v>193</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="M2" t="s">
-        <v>195</v>
       </c>
       <c r="N2" t="s">
         <v>196</v>
@@ -1229,15 +1228,15 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2" xr:uid="{0F9365AC-142C-4784-9D49-09D084101A28}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2" xr:uid="{4DC491D8-F96C-49EC-8327-D0CECCBDCDA0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
       <formula1>"Indian,Indonesian,Afghan,Albanian,Algerian,American Samoa,Andorra,Argentinian,Austrian,Bahrain,Bangladeshi,Belgian,Bhutan,Botswana,Brazilian,British Indian Ocean Territory,Bulgarian,Cambodian,Canadian,Central African Republic,Chinese,Colombian,Cuban"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" xr:uid="{AC0B2149-F88B-41E2-A850-1A094FBDE3D4}"/>
+    <hyperlink ref="L2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
@@ -1245,19 +1244,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9595507-183E-4B47-9919-B0926195B0B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1313,7 +1312,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1321,7 +1320,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -1337,7 +1336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -1361,7 +1360,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1385,7 +1384,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1401,7 +1400,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1417,7 +1416,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -1425,7 +1424,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -1433,7 +1432,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -1441,7 +1440,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -1449,7 +1448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1465,7 +1464,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1481,7 +1480,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -1497,7 +1496,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>85</v>
       </c>
@@ -1505,7 +1504,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>87</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>91</v>
       </c>
@@ -1537,7 +1536,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>93</v>
       </c>
@@ -1545,7 +1544,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>95</v>
       </c>
@@ -1553,7 +1552,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>99</v>
       </c>
@@ -1569,7 +1568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -1577,7 +1576,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>103</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>105</v>
       </c>
@@ -1593,7 +1592,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>107</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -1609,7 +1608,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>114</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>115</v>
       </c>
@@ -1641,7 +1640,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -1649,7 +1648,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>120</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -1673,7 +1672,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>123</v>
       </c>
@@ -1681,7 +1680,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -1689,7 +1688,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>127</v>
       </c>
@@ -1697,7 +1696,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>129</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>131</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -1721,7 +1720,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -1729,7 +1728,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>135</v>
       </c>
@@ -1737,7 +1736,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>138</v>
       </c>
@@ -1753,7 +1752,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -1761,7 +1760,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>140</v>
       </c>
@@ -1769,7 +1768,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>142</v>
       </c>
@@ -1777,7 +1776,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>144</v>
       </c>
@@ -1785,7 +1784,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>148</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>149</v>
       </c>
@@ -1809,7 +1808,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>151</v>
       </c>
@@ -1817,7 +1816,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>152</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -1833,7 +1832,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>156</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>158</v>
       </c>
@@ -1849,7 +1848,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>160</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>162</v>
       </c>
@@ -1865,7 +1864,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -1873,7 +1872,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>166</v>
       </c>
@@ -1881,7 +1880,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>168</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>170</v>
       </c>
@@ -1897,7 +1896,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>172</v>
       </c>
@@ -1905,7 +1904,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>174</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>176</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>177</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>178</v>
       </c>
@@ -1937,7 +1936,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>182</v>
       </c>
@@ -1953,7 +1952,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -1961,7 +1960,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>185</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>186</v>
       </c>
@@ -1977,7 +1976,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>187</v>
       </c>
